--- a/VersionRecords/Version 5.1.5/版本Bug和特性计划及评审表v5.1.5_EQ组.xlsx
+++ b/VersionRecords/Version 5.1.5/版本Bug和特性计划及评审表v5.1.5_EQ组.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\VersionRecords\Version 5.1.4.1 20161207\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\VersionRecords\Version 5.1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>No</t>
   </si>
@@ -186,6 +186,22 @@
   </si>
   <si>
     <t>金刚</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复租客WAP搜索框输入中文回车搜索不到房源问题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>renterpc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭晓春</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -929,7 +945,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1072,19 +1088,43 @@
       <c r="V2" s="8"/>
     </row>
     <row r="3" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="16"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="11">
+        <v>42711</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="11">
+        <v>42711</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="N3" s="10"/>
       <c r="O3" s="12"/>
       <c r="P3" s="11"/>

--- a/VersionRecords/Version 5.1.5/版本Bug和特性计划及评审表v5.1.5_EQ组.xlsx
+++ b/VersionRecords/Version 5.1.5/版本Bug和特性计划及评审表v5.1.5_EQ组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\VersionRecords\Version 5.1.5\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>No</t>
   </si>
@@ -202,14 +197,26 @@
   </si>
   <si>
     <t>彭晓春</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -938,17 +945,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomRight" activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="14" customWidth="1"/>
     <col min="2" max="3" width="9.875" style="14" customWidth="1"/>
@@ -974,7 +981,7 @@
     <col min="23" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="27.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1039,7 +1046,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="9" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="26.25" customHeight="1">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -1077,17 +1084,25 @@
       <c r="M2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="12"/>
+      <c r="N2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="11">
+        <v>42711</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="R2" s="28"/>
       <c r="S2" s="28"/>
       <c r="T2" s="28"/>
       <c r="U2" s="13"/>
       <c r="V2" s="8"/>
     </row>
-    <row r="3" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" ht="16.5">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -1125,16 +1140,26 @@
       <c r="M3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="7"/>
+      <c r="N3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="11">
+        <v>42711</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="R3" s="7">
+        <v>6087</v>
+      </c>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="4"/>
     </row>
-    <row r="4" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" ht="16.5">
       <c r="A4" s="16"/>
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
@@ -1157,7 +1182,7 @@
       <c r="T4" s="7"/>
       <c r="U4" s="4"/>
     </row>
-    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" ht="16.5">
       <c r="A5" s="7"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -1180,7 +1205,7 @@
       <c r="T5" s="7"/>
       <c r="U5" s="4"/>
     </row>
-    <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" ht="16.5">
       <c r="A6" s="7"/>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
@@ -1203,7 +1228,7 @@
       <c r="T6" s="7"/>
       <c r="U6" s="4"/>
     </row>
-    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" ht="16.5">
       <c r="A7" s="7"/>
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
@@ -1226,7 +1251,7 @@
       <c r="T7" s="7"/>
       <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" ht="16.5">
       <c r="A8" s="7"/>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
@@ -1249,7 +1274,7 @@
       <c r="T8" s="7"/>
       <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" ht="16.5">
       <c r="A9" s="7"/>
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
@@ -1272,7 +1297,7 @@
       <c r="T9" s="7"/>
       <c r="U9" s="4"/>
     </row>
-    <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" ht="16.5">
       <c r="A10" s="7"/>
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
@@ -1295,7 +1320,7 @@
       <c r="T10" s="7"/>
       <c r="U10" s="4"/>
     </row>
-    <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" ht="16.5">
       <c r="A11" s="7"/>
       <c r="B11" s="31"/>
       <c r="C11" s="31"/>
@@ -1318,7 +1343,7 @@
       <c r="T11" s="7"/>
       <c r="U11" s="4"/>
     </row>
-    <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" ht="16.5">
       <c r="A12" s="7"/>
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
@@ -1341,7 +1366,7 @@
       <c r="T12" s="7"/>
       <c r="U12" s="4"/>
     </row>
-    <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" ht="16.5">
       <c r="A13" s="7"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -1364,7 +1389,7 @@
       <c r="T13" s="7"/>
       <c r="U13" s="4"/>
     </row>
-    <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" ht="16.5">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1387,7 +1412,7 @@
       <c r="T14" s="7"/>
       <c r="U14" s="4"/>
     </row>
-    <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" ht="16.5">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1410,7 +1435,7 @@
       <c r="T15" s="7"/>
       <c r="U15" s="4"/>
     </row>
-    <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" ht="16.5">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1433,7 +1458,7 @@
       <c r="T16" s="7"/>
       <c r="U16" s="4"/>
     </row>
-    <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" ht="16.5">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1456,7 +1481,7 @@
       <c r="T17" s="7"/>
       <c r="U17" s="4"/>
     </row>
-    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" ht="16.5">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1479,7 +1504,7 @@
       <c r="T18" s="7"/>
       <c r="U18" s="4"/>
     </row>
-    <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" ht="16.5">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1502,7 +1527,7 @@
       <c r="T19" s="7"/>
       <c r="U19" s="4"/>
     </row>
-    <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" ht="16.5">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1525,7 +1550,7 @@
       <c r="T20" s="7"/>
       <c r="U20" s="4"/>
     </row>
-    <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" ht="16.5">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1548,7 +1573,7 @@
       <c r="T21" s="7"/>
       <c r="U21" s="4"/>
     </row>
-    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21" ht="16.5">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1571,7 +1596,7 @@
       <c r="T22" s="7"/>
       <c r="U22" s="4"/>
     </row>
-    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" ht="16.5">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1594,7 +1619,7 @@
       <c r="T23" s="7"/>
       <c r="U23" s="4"/>
     </row>
-    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21" ht="16.5">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1617,7 +1642,7 @@
       <c r="T24" s="7"/>
       <c r="U24" s="4"/>
     </row>
-    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" ht="16.5">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1640,7 +1665,7 @@
       <c r="T25" s="7"/>
       <c r="U25" s="4"/>
     </row>
-    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21" ht="16.5">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1663,7 +1688,7 @@
       <c r="T26" s="7"/>
       <c r="U26" s="4"/>
     </row>
-    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" ht="16.5">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1686,7 +1711,7 @@
       <c r="T27" s="7"/>
       <c r="U27" s="4"/>
     </row>
-    <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" ht="16.5">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1709,7 +1734,7 @@
       <c r="T28" s="7"/>
       <c r="U28" s="4"/>
     </row>
-    <row r="29" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21" ht="16.5">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1732,7 +1757,7 @@
       <c r="T29" s="7"/>
       <c r="U29" s="4"/>
     </row>
-    <row r="30" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:21" ht="16.5">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1755,7 +1780,7 @@
       <c r="T30" s="7"/>
       <c r="U30" s="4"/>
     </row>
-    <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21" ht="16.5">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1778,7 +1803,7 @@
       <c r="T31" s="7"/>
       <c r="U31" s="4"/>
     </row>
-    <row r="32" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21" ht="16.5">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1801,7 +1826,7 @@
       <c r="T32" s="7"/>
       <c r="U32" s="4"/>
     </row>
-    <row r="33" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" ht="16.5">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1824,7 +1849,7 @@
       <c r="T33" s="7"/>
       <c r="U33" s="4"/>
     </row>
-    <row r="34" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" ht="16.5">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1847,7 +1872,7 @@
       <c r="T34" s="7"/>
       <c r="U34" s="4"/>
     </row>
-    <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" ht="16.5">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1870,7 +1895,7 @@
       <c r="T35" s="7"/>
       <c r="U35" s="4"/>
     </row>
-    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" ht="16.5">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1893,7 +1918,7 @@
       <c r="T36" s="7"/>
       <c r="U36" s="4"/>
     </row>
-    <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" ht="16.5">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1916,7 +1941,7 @@
       <c r="T37" s="7"/>
       <c r="U37" s="4"/>
     </row>
-    <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" ht="16.5">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -1939,7 +1964,7 @@
       <c r="T38" s="7"/>
       <c r="U38" s="4"/>
     </row>
-    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" ht="16.5">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1962,7 +1987,7 @@
       <c r="T39" s="7"/>
       <c r="U39" s="4"/>
     </row>
-    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" ht="16.5">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -1985,7 +2010,7 @@
       <c r="T40" s="7"/>
       <c r="U40" s="4"/>
     </row>
-    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" ht="16.5">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -2008,7 +2033,7 @@
       <c r="T41" s="7"/>
       <c r="U41" s="4"/>
     </row>
-    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" ht="16.5">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -2031,7 +2056,7 @@
       <c r="T42" s="7"/>
       <c r="U42" s="4"/>
     </row>
-    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" ht="16.5">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2054,7 +2079,7 @@
       <c r="T43" s="7"/>
       <c r="U43" s="4"/>
     </row>
-    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21" ht="16.5">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2077,7 +2102,7 @@
       <c r="T44" s="7"/>
       <c r="U44" s="4"/>
     </row>
-    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21" ht="16.5">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -2100,7 +2125,7 @@
       <c r="T45" s="7"/>
       <c r="U45" s="4"/>
     </row>
-    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:21" ht="16.5">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2123,7 +2148,7 @@
       <c r="T46" s="7"/>
       <c r="U46" s="4"/>
     </row>
-    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:21" ht="16.5">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -2146,7 +2171,7 @@
       <c r="T47" s="7"/>
       <c r="U47" s="4"/>
     </row>
-    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:21" ht="16.5">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -2169,7 +2194,7 @@
       <c r="T48" s="7"/>
       <c r="U48" s="4"/>
     </row>
-    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" ht="16.5">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -2192,7 +2217,7 @@
       <c r="T49" s="7"/>
       <c r="U49" s="4"/>
     </row>
-    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" ht="16.5">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -2215,7 +2240,7 @@
       <c r="T50" s="7"/>
       <c r="U50" s="4"/>
     </row>
-    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21" ht="16.5">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -2238,7 +2263,7 @@
       <c r="T51" s="7"/>
       <c r="U51" s="4"/>
     </row>
-    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21" ht="16.5">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -2261,7 +2286,7 @@
       <c r="T52" s="7"/>
       <c r="U52" s="4"/>
     </row>
-    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21" ht="16.5">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -2284,7 +2309,7 @@
       <c r="T53" s="7"/>
       <c r="U53" s="4"/>
     </row>
-    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21" ht="16.5">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -2307,7 +2332,7 @@
       <c r="T54" s="7"/>
       <c r="U54" s="4"/>
     </row>
-    <row r="55" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21" ht="16.5">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -2330,7 +2355,7 @@
       <c r="T55" s="7"/>
       <c r="U55" s="4"/>
     </row>
-    <row r="56" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21" ht="16.5">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -2353,7 +2378,7 @@
       <c r="T56" s="7"/>
       <c r="U56" s="4"/>
     </row>
-    <row r="57" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21" ht="16.5">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -2376,7 +2401,7 @@
       <c r="T57" s="7"/>
       <c r="U57" s="4"/>
     </row>
-    <row r="58" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:21" ht="16.5">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -2399,7 +2424,7 @@
       <c r="T58" s="7"/>
       <c r="U58" s="4"/>
     </row>
-    <row r="59" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:21" ht="16.5">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -2422,7 +2447,7 @@
       <c r="T59" s="7"/>
       <c r="U59" s="4"/>
     </row>
-    <row r="60" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:21" ht="16.5">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -2445,7 +2470,7 @@
       <c r="T60" s="7"/>
       <c r="U60" s="4"/>
     </row>
-    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:21" ht="16.5">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -2468,7 +2493,7 @@
       <c r="T61" s="7"/>
       <c r="U61" s="4"/>
     </row>
-    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:21" ht="16.5">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -2491,7 +2516,7 @@
       <c r="T62" s="7"/>
       <c r="U62" s="4"/>
     </row>
-    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:21" ht="16.5">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -2514,7 +2539,7 @@
       <c r="T63" s="7"/>
       <c r="U63" s="4"/>
     </row>
-    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:21" ht="16.5">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -2537,7 +2562,7 @@
       <c r="T64" s="7"/>
       <c r="U64" s="4"/>
     </row>
-    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21" ht="16.5">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -2560,7 +2585,7 @@
       <c r="T65" s="7"/>
       <c r="U65" s="4"/>
     </row>
-    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21" ht="16.5">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -2583,7 +2608,7 @@
       <c r="T66" s="7"/>
       <c r="U66" s="4"/>
     </row>
-    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21" ht="16.5">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -2606,7 +2631,7 @@
       <c r="T67" s="7"/>
       <c r="U67" s="4"/>
     </row>
-    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21" ht="16.5">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -2629,7 +2654,7 @@
       <c r="T68" s="7"/>
       <c r="U68" s="4"/>
     </row>
-    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21" ht="16.5">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -2652,7 +2677,7 @@
       <c r="T69" s="7"/>
       <c r="U69" s="4"/>
     </row>
-    <row r="70" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21" ht="16.5">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -2675,7 +2700,7 @@
       <c r="T70" s="7"/>
       <c r="U70" s="4"/>
     </row>
-    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21" ht="16.5">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -2698,7 +2723,7 @@
       <c r="T71" s="7"/>
       <c r="U71" s="4"/>
     </row>
-    <row r="72" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21" ht="16.5">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -2721,7 +2746,7 @@
       <c r="T72" s="7"/>
       <c r="U72" s="4"/>
     </row>
-    <row r="73" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21" ht="16.5">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -2744,7 +2769,7 @@
       <c r="T73" s="7"/>
       <c r="U73" s="4"/>
     </row>
-    <row r="74" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21" ht="16.5">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -2767,7 +2792,7 @@
       <c r="T74" s="7"/>
       <c r="U74" s="4"/>
     </row>
-    <row r="75" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21" ht="16.5">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -2790,7 +2815,7 @@
       <c r="T75" s="7"/>
       <c r="U75" s="4"/>
     </row>
-    <row r="76" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21" ht="16.5">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -2813,7 +2838,7 @@
       <c r="T76" s="7"/>
       <c r="U76" s="4"/>
     </row>
-    <row r="77" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21" ht="16.5">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -2836,7 +2861,7 @@
       <c r="T77" s="7"/>
       <c r="U77" s="4"/>
     </row>
-    <row r="78" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21" ht="16.5">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -2859,7 +2884,7 @@
       <c r="T78" s="7"/>
       <c r="U78" s="4"/>
     </row>
-    <row r="79" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:21" ht="16.5">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -2882,7 +2907,7 @@
       <c r="T79" s="7"/>
       <c r="U79" s="4"/>
     </row>
-    <row r="80" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:21" ht="16.5">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -2905,7 +2930,7 @@
       <c r="T80" s="7"/>
       <c r="U80" s="4"/>
     </row>
-    <row r="81" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:21" ht="16.5">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -2928,7 +2953,7 @@
       <c r="T81" s="7"/>
       <c r="U81" s="4"/>
     </row>
-    <row r="82" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:21" ht="16.5">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -2951,7 +2976,7 @@
       <c r="T82" s="7"/>
       <c r="U82" s="4"/>
     </row>
-    <row r="83" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:21" ht="16.5">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -2974,7 +2999,7 @@
       <c r="T83" s="7"/>
       <c r="U83" s="4"/>
     </row>
-    <row r="84" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:21" ht="16.5">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -2997,7 +3022,7 @@
       <c r="T84" s="7"/>
       <c r="U84" s="4"/>
     </row>
-    <row r="85" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:21" ht="16.5">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -3020,7 +3045,7 @@
       <c r="T85" s="7"/>
       <c r="U85" s="4"/>
     </row>
-    <row r="86" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:21" ht="16.5">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -3043,7 +3068,7 @@
       <c r="T86" s="7"/>
       <c r="U86" s="4"/>
     </row>
-    <row r="87" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:21" ht="16.5">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -3066,7 +3091,7 @@
       <c r="T87" s="7"/>
       <c r="U87" s="4"/>
     </row>
-    <row r="88" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:21" ht="16.5">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -3089,7 +3114,7 @@
       <c r="T88" s="7"/>
       <c r="U88" s="4"/>
     </row>
-    <row r="89" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:21" ht="16.5">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -3112,7 +3137,7 @@
       <c r="T89" s="7"/>
       <c r="U89" s="4"/>
     </row>
-    <row r="90" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:21" ht="16.5">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -3135,7 +3160,7 @@
       <c r="T90" s="7"/>
       <c r="U90" s="4"/>
     </row>
-    <row r="91" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:21" ht="16.5">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -3158,7 +3183,7 @@
       <c r="T91" s="7"/>
       <c r="U91" s="4"/>
     </row>
-    <row r="92" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:21" ht="16.5">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -3181,7 +3206,7 @@
       <c r="T92" s="7"/>
       <c r="U92" s="4"/>
     </row>
-    <row r="93" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:21" ht="16.5">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -3204,7 +3229,7 @@
       <c r="T93" s="7"/>
       <c r="U93" s="4"/>
     </row>
-    <row r="94" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:21" ht="16.5">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -3227,7 +3252,7 @@
       <c r="T94" s="7"/>
       <c r="U94" s="4"/>
     </row>
-    <row r="95" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:21" ht="16.5">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -3250,7 +3275,7 @@
       <c r="T95" s="7"/>
       <c r="U95" s="4"/>
     </row>
-    <row r="96" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:21" ht="16.5">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -3273,7 +3298,7 @@
       <c r="T96" s="7"/>
       <c r="U96" s="4"/>
     </row>
-    <row r="97" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:21" ht="16.5">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -3296,7 +3321,7 @@
       <c r="T97" s="7"/>
       <c r="U97" s="4"/>
     </row>
-    <row r="98" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:21" ht="16.5">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -3319,7 +3344,7 @@
       <c r="T98" s="7"/>
       <c r="U98" s="4"/>
     </row>
-    <row r="99" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:21" ht="16.5">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -3342,7 +3367,7 @@
       <c r="T99" s="7"/>
       <c r="U99" s="4"/>
     </row>
-    <row r="100" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:21" ht="16.5">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -3365,7 +3390,7 @@
       <c r="T100" s="7"/>
       <c r="U100" s="4"/>
     </row>
-    <row r="101" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:21" ht="16.5">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -3388,7 +3413,7 @@
       <c r="T101" s="7"/>
       <c r="U101" s="4"/>
     </row>
-    <row r="102" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:21" ht="16.5">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -3411,7 +3436,7 @@
       <c r="T102" s="7"/>
       <c r="U102" s="4"/>
     </row>
-    <row r="103" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:21" ht="16.5">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -3431,7 +3456,7 @@
       <c r="Q103" s="4"/>
       <c r="U103" s="4"/>
     </row>
-    <row r="104" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:21" ht="16.5">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -3451,7 +3476,7 @@
       <c r="Q104" s="4"/>
       <c r="U104" s="4"/>
     </row>
-    <row r="105" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:21" ht="16.5">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -3471,7 +3496,7 @@
       <c r="Q105" s="4"/>
       <c r="U105" s="4"/>
     </row>
-    <row r="106" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:21" ht="16.5">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -3491,7 +3516,7 @@
       <c r="Q106" s="4"/>
       <c r="U106" s="4"/>
     </row>
-    <row r="107" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:21" ht="16.5">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -3511,7 +3536,7 @@
       <c r="Q107" s="4"/>
       <c r="U107" s="4"/>
     </row>
-    <row r="108" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:21" ht="16.5">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -3531,7 +3556,7 @@
       <c r="Q108" s="4"/>
       <c r="U108" s="4"/>
     </row>
-    <row r="109" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:21" ht="16.5">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -3551,7 +3576,7 @@
       <c r="Q109" s="4"/>
       <c r="U109" s="4"/>
     </row>
-    <row r="110" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:21" ht="16.5">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -3571,7 +3596,7 @@
       <c r="Q110" s="4"/>
       <c r="U110" s="4"/>
     </row>
-    <row r="111" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:21" ht="16.5">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -3591,7 +3616,7 @@
       <c r="Q111" s="4"/>
       <c r="U111" s="4"/>
     </row>
-    <row r="112" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:21" ht="16.5">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -3611,7 +3636,7 @@
       <c r="Q112" s="4"/>
       <c r="U112" s="4"/>
     </row>
-    <row r="113" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:21" ht="16.5">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -3631,7 +3656,7 @@
       <c r="Q113" s="4"/>
       <c r="U113" s="4"/>
     </row>
-    <row r="114" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:21" ht="16.5">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -3651,7 +3676,7 @@
       <c r="Q114" s="4"/>
       <c r="U114" s="4"/>
     </row>
-    <row r="115" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:21" ht="16.5">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -3671,7 +3696,7 @@
       <c r="Q115" s="4"/>
       <c r="U115" s="4"/>
     </row>
-    <row r="116" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:21" ht="16.5">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -3691,7 +3716,7 @@
       <c r="Q116" s="4"/>
       <c r="U116" s="4"/>
     </row>
-    <row r="117" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:21" ht="16.5">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -3711,7 +3736,7 @@
       <c r="Q117" s="4"/>
       <c r="U117" s="4"/>
     </row>
-    <row r="118" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:21" ht="16.5">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -3731,7 +3756,7 @@
       <c r="Q118" s="4"/>
       <c r="U118" s="4"/>
     </row>
-    <row r="119" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:21" ht="16.5">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -3751,7 +3776,7 @@
       <c r="Q119" s="4"/>
       <c r="U119" s="4"/>
     </row>
-    <row r="120" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:21" ht="16.5">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -3771,7 +3796,7 @@
       <c r="Q120" s="4"/>
       <c r="U120" s="4"/>
     </row>
-    <row r="121" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:21" ht="16.5">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -3791,7 +3816,7 @@
       <c r="Q121" s="4"/>
       <c r="U121" s="4"/>
     </row>
-    <row r="122" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:21" ht="16.5">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -3811,7 +3836,7 @@
       <c r="Q122" s="4"/>
       <c r="U122" s="4"/>
     </row>
-    <row r="123" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:21" ht="16.5">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -3831,7 +3856,7 @@
       <c r="Q123" s="4"/>
       <c r="U123" s="4"/>
     </row>
-    <row r="124" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:21" ht="16.5">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -3851,7 +3876,7 @@
       <c r="Q124" s="4"/>
       <c r="U124" s="4"/>
     </row>
-    <row r="125" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:21" ht="16.5">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -3871,7 +3896,7 @@
       <c r="Q125" s="4"/>
       <c r="U125" s="4"/>
     </row>
-    <row r="126" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:21" ht="16.5">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -3891,7 +3916,7 @@
       <c r="Q126" s="4"/>
       <c r="U126" s="4"/>
     </row>
-    <row r="127" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:21" ht="16.5">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -3911,7 +3936,7 @@
       <c r="Q127" s="4"/>
       <c r="U127" s="4"/>
     </row>
-    <row r="128" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:21" ht="16.5">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -3931,7 +3956,7 @@
       <c r="Q128" s="4"/>
       <c r="U128" s="4"/>
     </row>
-    <row r="129" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:21" ht="16.5">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -3951,7 +3976,7 @@
       <c r="Q129" s="4"/>
       <c r="U129" s="4"/>
     </row>
-    <row r="130" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:21" ht="16.5">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -3971,7 +3996,7 @@
       <c r="Q130" s="4"/>
       <c r="U130" s="4"/>
     </row>
-    <row r="131" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:21" ht="16.5">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -3991,7 +4016,7 @@
       <c r="Q131" s="4"/>
       <c r="U131" s="4"/>
     </row>
-    <row r="132" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:21" ht="16.5">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -4011,7 +4036,7 @@
       <c r="Q132" s="4"/>
       <c r="U132" s="4"/>
     </row>
-    <row r="133" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:21" ht="16.5">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -4031,7 +4056,7 @@
       <c r="Q133" s="4"/>
       <c r="U133" s="4"/>
     </row>
-    <row r="134" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:21" ht="16.5">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -4051,7 +4076,7 @@
       <c r="Q134" s="4"/>
       <c r="U134" s="4"/>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:21">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -4071,7 +4096,7 @@
       <c r="Q135" s="4"/>
       <c r="U135" s="4"/>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:21">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -4091,7 +4116,7 @@
       <c r="Q136" s="4"/>
       <c r="U136" s="4"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:21">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
@@ -4111,131 +4136,131 @@
       <c r="Q137" s="4"/>
       <c r="U137" s="4"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:21">
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:21">
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:21">
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:21">
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:21">
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:21">
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:21">
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:3">
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:3">
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:3">
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:3">
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:3">
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:3">
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:3">
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:3">
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:3">
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:3">
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:3">
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:3">
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:3">
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:3">
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:3">
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:3">
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="161" spans="2:3">
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="162" spans="2:3">
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="163" spans="2:3">
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="164" spans="2:3">
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="165" spans="2:3">
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="166" spans="2:3">
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="167" spans="2:3">
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="168" spans="2:3">
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="169" spans="2:3">
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
     </row>
@@ -4247,21 +4272,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
     <col min="8" max="8" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="33" t="s">
         <v>27</v>
       </c>
@@ -4274,7 +4299,7 @@
       <c r="H1" s="33"/>
       <c r="I1" s="34"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -4285,7 +4310,7 @@
       <c r="H2" s="35"/>
       <c r="I2" s="36"/>
     </row>
-    <row r="3" spans="1:9" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" s="26" customFormat="1" ht="16.5">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -4314,7 +4339,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="19"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -4325,7 +4350,7 @@
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -4336,7 +4361,7 @@
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -4347,7 +4372,7 @@
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -4358,7 +4383,7 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -4369,7 +4394,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -4380,7 +4405,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -4391,7 +4416,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -4402,7 +4427,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -4413,7 +4438,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -4424,7 +4449,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -4453,14 +4478,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -4471,7 +4496,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="18" t="s">
         <v>18</v>
       </c>
@@ -4497,7 +4522,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="2" customFormat="1">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -4507,7 +4532,7 @@
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -4517,7 +4542,7 @@
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -4527,7 +4552,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -4537,7 +4562,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -4547,7 +4572,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -4557,7 +4582,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -4567,7 +4592,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -4577,7 +4602,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -4587,7 +4612,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -4597,7 +4622,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -4607,7 +4632,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -4617,7 +4642,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -4627,7 +4652,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -4637,7 +4662,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -4647,7 +4672,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -4657,7 +4682,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -4667,7 +4692,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
